--- a/network_resource/测试数据.xlsx
+++ b/network_resource/测试数据.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20460" windowHeight="7545" activeTab="1"/>
+    <workbookView windowWidth="20460" windowHeight="7545" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="创建VLAN池" sheetId="1" r:id="rId1"/>
     <sheet name="编辑VLAN池" sheetId="4" r:id="rId2"/>
-    <sheet name="创建网络" sheetId="2" r:id="rId3"/>
-    <sheet name="编辑网络" sheetId="3" r:id="rId4"/>
+    <sheet name="删除VLAN池" sheetId="5" r:id="rId3"/>
+    <sheet name="创建网络" sheetId="2" r:id="rId4"/>
+    <sheet name="编辑网络" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -1180,8 +1181,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1261,6 +1262,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G2"/>
@@ -1329,7 +1365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>

--- a/network_resource/测试数据.xlsx
+++ b/network_resource/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20460" windowHeight="7545" activeTab="2"/>
+    <workbookView windowWidth="20460" windowHeight="7545" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="创建VLAN池" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="删除VLAN池" sheetId="5" r:id="rId3"/>
     <sheet name="创建网络" sheetId="2" r:id="rId4"/>
     <sheet name="编辑网络" sheetId="3" r:id="rId5"/>
+    <sheet name="创建子网" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -107,18 +108,12 @@
     <t>这是描述</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>vlanTag</t>
   </si>
   <si>
     <t>resourcePoolIds</t>
   </si>
   <si>
-    <t>155</t>
-  </si>
-  <si>
     <t>自动化创建网络1修改</t>
   </si>
   <si>
@@ -129,6 +124,48 @@
   </si>
   <si>
     <t>[114]</t>
+  </si>
+  <si>
+    <t>ipProtocol</t>
+  </si>
+  <si>
+    <t>cidr</t>
+  </si>
+  <si>
+    <t>isGatewayDisabled</t>
+  </si>
+  <si>
+    <t>gatewayIp</t>
+  </si>
+  <si>
+    <t>ipPools</t>
+  </si>
+  <si>
+    <t>preferredDns</t>
+  </si>
+  <si>
+    <t>alternateDns</t>
+  </si>
+  <si>
+    <t>自动化创建子网1</t>
+  </si>
+  <si>
+    <t>IPV4</t>
+  </si>
+  <si>
+    <t>192.168.1.1/24</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>192.168.1.2,192.168.1.200</t>
+  </si>
+  <si>
+    <t>114.114.114.114</t>
+  </si>
+  <si>
+    <t>115.115.115.115</t>
   </si>
 </sst>
 </file>
@@ -137,9 +174,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -165,15 +202,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,113 +330,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -309,181 +346,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +531,84 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,84 +631,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -602,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -614,10 +651,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -626,118 +663,118 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
@@ -1106,7 +1143,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:E$1048576"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1266,7 +1303,7 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1302,7 +1339,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1371,12 +1408,12 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
@@ -1387,10 +1424,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -1399,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
@@ -1411,15 +1448,15 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -1428,7 +1465,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1437,10 +1474,89 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="C1" t="s">
         <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/network_resource/测试数据.xlsx
+++ b/network_resource/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20460" windowHeight="7545" activeTab="5"/>
+    <workbookView windowWidth="20460" windowHeight="7545" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="创建VLAN池" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="创建网络" sheetId="2" r:id="rId4"/>
     <sheet name="编辑网络" sheetId="3" r:id="rId5"/>
     <sheet name="创建子网" sheetId="6" r:id="rId6"/>
+    <sheet name="编辑子网" sheetId="7" r:id="rId7"/>
+    <sheet name="删除子网" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -108,6 +110,9 @@
     <t>这是描述</t>
   </si>
   <si>
+    <t>21549</t>
+  </si>
+  <si>
     <t>vlanTag</t>
   </si>
   <si>
@@ -126,6 +131,21 @@
     <t>[114]</t>
   </si>
   <si>
+    <t>自动化创建网络2</t>
+  </si>
+  <si>
+    <t>自动化创建网络2修改</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>network_name</t>
+  </si>
+  <si>
+    <t>subnet_name</t>
+  </si>
+  <si>
     <t>ipProtocol</t>
   </si>
   <si>
@@ -166,6 +186,27 @@
   </si>
   <si>
     <t>115.115.115.115</t>
+  </si>
+  <si>
+    <t>自动化创建子网2</t>
+  </si>
+  <si>
+    <t>192.168.2.1/24</t>
+  </si>
+  <si>
+    <t>192.168.2.1</t>
+  </si>
+  <si>
+    <t>192.168.2.2,192.168.2.200</t>
+  </si>
+  <si>
+    <t>update_subnet_name</t>
+  </si>
+  <si>
+    <t>自动化创建子网1修改</t>
+  </si>
+  <si>
+    <t>自动化创建子网2修改</t>
   </si>
 </sst>
 </file>
@@ -1336,13 +1377,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
@@ -1396,6 +1437,29 @@
         <v>28</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1405,13 +1469,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.875" style="1" customWidth="1"/>
@@ -1436,7 +1500,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
@@ -1448,7 +1512,7 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1456,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -1465,7 +1529,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1474,10 +1538,39 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1489,74 +1582,260 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="26.875" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="26.875" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/network_resource/测试数据.xlsx
+++ b/network_resource/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20460" windowHeight="7545" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="20460" windowHeight="7545" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="创建VLAN池" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="创建子网" sheetId="6" r:id="rId6"/>
     <sheet name="编辑子网" sheetId="7" r:id="rId7"/>
     <sheet name="删除子网" sheetId="8" r:id="rId8"/>
+    <sheet name="创建新对象" sheetId="9" r:id="rId9"/>
+    <sheet name="添加已有对象" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -207,6 +209,27 @@
   </si>
   <si>
     <t>自动化创建子网2修改</t>
+  </si>
+  <si>
+    <t>network_resourcepool_name</t>
+  </si>
+  <si>
+    <t>resourcePoolType</t>
+  </si>
+  <si>
+    <t>object_name</t>
+  </si>
+  <si>
+    <t>VMware资源池1</t>
+  </si>
+  <si>
+    <t>vmware</t>
+  </si>
+  <si>
+    <t>自动创建网络对象1</t>
+  </si>
+  <si>
+    <t>自动创建网络对象2</t>
   </si>
 </sst>
 </file>
@@ -215,9 +238,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -229,6 +252,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -236,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,13 +274,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,9 +304,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,32 +318,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,9 +341,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,7 +381,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -358,19 +389,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -381,187 +404,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,6 +595,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -599,17 +637,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,6 +657,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,15 +687,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -663,15 +695,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -680,151 +703,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1189,11 +1215,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="34.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1223,10 +1249,10 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1240,16 +1266,32 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1265,12 +1307,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1306,10 +1348,10 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1326,10 +1368,10 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1385,10 +1427,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1421,10 +1463,10 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E2" t="s">
@@ -1444,10 +1486,10 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E3" t="s">
@@ -1477,13 +1519,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1540,7 +1582,7 @@
       <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1557,7 +1599,7 @@
       <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F3" t="s">
@@ -1569,7 +1611,7 @@
       <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1585,7 +1627,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1804,8 +1846,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1842,4 +1884,69 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/network_resource/测试数据.xlsx
+++ b/network_resource/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20460" windowHeight="7545" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="20460" windowHeight="7545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="创建VLAN池" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="删除子网" sheetId="8" r:id="rId8"/>
     <sheet name="创建新对象" sheetId="9" r:id="rId9"/>
     <sheet name="添加已有对象" sheetId="10" r:id="rId10"/>
+    <sheet name="删除对象" sheetId="11" r:id="rId11"/>
+    <sheet name="删除网络" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -112,6 +114,9 @@
     <t>这是描述</t>
   </si>
   <si>
+    <t>自动化创建网络2</t>
+  </si>
+  <si>
     <t>21549</t>
   </si>
   <si>
@@ -131,9 +136,6 @@
   </si>
   <si>
     <t>[114]</t>
-  </si>
-  <si>
-    <t>自动化创建网络2</t>
   </si>
   <si>
     <t>自动化创建网络2修改</t>
@@ -849,10 +851,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1215,11 +1217,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="34.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="53.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1285,12 +1287,92 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="20.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1307,12 +1389,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1421,16 +1503,16 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1481,7 +1563,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -1490,7 +1572,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1514,18 +1596,18 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1542,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
@@ -1554,7 +1636,7 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1562,7 +1644,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -1571,7 +1653,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1580,15 +1662,15 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -1609,10 +1691,10 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1756,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -1703,7 +1785,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -1785,7 +1867,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -1811,7 +1893,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -1866,7 +1948,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -1874,7 +1956,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -1892,7 +1974,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1919,9 +2001,9 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
@@ -1933,9 +2015,9 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C3" t="s">

--- a/network_resource/测试数据.xlsx
+++ b/network_resource/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20460" windowHeight="7545" activeTab="3"/>
+    <workbookView windowWidth="20460" windowHeight="7545" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="创建VLAN池" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -1285,14 +1285,43 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1503,7 +1532,7 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1974,7 +2003,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>

--- a/network_resource/测试数据.xlsx
+++ b/network_resource/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20460" windowHeight="7545" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="20460" windowHeight="7545" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="创建VLAN池" sheetId="1" r:id="rId1"/>
@@ -847,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -858,6 +858,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -1209,13 +1210,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="34.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
@@ -1251,10 +1252,10 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1268,12 +1269,15 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1288,7 +1292,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1333,7 +1337,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1459,10 +1463,10 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1479,10 +1483,10 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1574,10 +1578,10 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E2" t="s">
@@ -1597,10 +1601,10 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E3" t="s">
@@ -1710,7 +1714,7 @@
       <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F3" t="s">
@@ -1958,7 +1962,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/network_resource/测试数据.xlsx
+++ b/network_resource/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20460" windowHeight="7545" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="19905" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="创建VLAN池" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -239,10 +239,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -267,6 +267,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -275,7 +298,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,7 +367,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,97 +390,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -406,19 +406,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,19 +502,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,13 +556,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,121 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,6 +597,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -611,39 +629,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,9 +650,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,13 +683,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,145 +705,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,8 +1212,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1414,13 +1414,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1484,9 +1484,29 @@
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1537,7 +1557,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1629,7 +1649,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
